--- a/en/application_framework/application_framework/libraries/images/tag/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/tag/images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\libraries\images\tag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F364AE27-91F8-4F6C-A29D-4EF6C14EED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04E78A-18FB-4A8B-B2F2-882179E3518F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1365" windowWidth="14505" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_check" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>window_scope</t>
     <phoneticPr fontId="1"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>error_css.png</t>
+  </si>
+  <si>
+    <t>db-double-submit.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -183,8 +187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="533400" y="4772025"/>
-          <a:ext cx="8248650" cy="3305175"/>
+          <a:off x="541564" y="4921704"/>
+          <a:ext cx="8416018" cy="3408589"/>
           <a:chOff x="533400" y="4772025"/>
           <a:chExt cx="8248650" cy="3305175"/>
         </a:xfrm>
@@ -863,8 +867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="13106399"/>
-          <a:ext cx="2857499" cy="609601"/>
+          <a:off x="242207" y="13518695"/>
+          <a:ext cx="2914649" cy="625930"/>
           <a:chOff x="695325" y="12925424"/>
           <a:chExt cx="2857499" cy="609601"/>
         </a:xfrm>
@@ -1131,8 +1135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4200525" y="13058775"/>
-          <a:ext cx="3324226" cy="1610754"/>
+          <a:off x="4286250" y="13471071"/>
+          <a:ext cx="3389540" cy="1659740"/>
           <a:chOff x="4200525" y="13058775"/>
           <a:chExt cx="3324226" cy="1610754"/>
         </a:xfrm>
@@ -1609,8 +1613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="666750" y="9153525"/>
-          <a:ext cx="6153150" cy="2828925"/>
+          <a:off x="678996" y="9440636"/>
+          <a:ext cx="6279697" cy="2916010"/>
           <a:chOff x="666750" y="9153525"/>
           <a:chExt cx="6153150" cy="2828925"/>
         </a:xfrm>
@@ -3161,8 +3165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="15773400"/>
-          <a:ext cx="4791075" cy="3591954"/>
+          <a:off x="104775" y="16267339"/>
+          <a:ext cx="4889046" cy="3706254"/>
           <a:chOff x="7705725" y="9258300"/>
           <a:chExt cx="4791075" cy="3591954"/>
         </a:xfrm>
@@ -4269,8 +4273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5324475" y="15792450"/>
-          <a:ext cx="4743451" cy="3163329"/>
+          <a:off x="5430611" y="16286389"/>
+          <a:ext cx="4841422" cy="3266744"/>
           <a:chOff x="7705725" y="9686925"/>
           <a:chExt cx="4743451" cy="3163329"/>
         </a:xfrm>
@@ -5128,8 +5132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11049000" y="15792450"/>
-          <a:ext cx="5257800" cy="2601354"/>
+          <a:off x="11273518" y="16286389"/>
+          <a:ext cx="5363936" cy="2688440"/>
           <a:chOff x="11087100" y="16354425"/>
           <a:chExt cx="5257800" cy="2601354"/>
         </a:xfrm>
@@ -6048,8 +6052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11077575" y="19831050"/>
-          <a:ext cx="4781551" cy="2601354"/>
+          <a:off x="11302093" y="20455618"/>
+          <a:ext cx="4879522" cy="2682997"/>
           <a:chOff x="11087100" y="16354425"/>
           <a:chExt cx="4781551" cy="2601354"/>
         </a:xfrm>
@@ -6820,8 +6824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5219700" y="19954875"/>
-          <a:ext cx="4791075" cy="2601354"/>
+          <a:off x="5325836" y="20584886"/>
+          <a:ext cx="4889046" cy="2682997"/>
           <a:chOff x="5219700" y="19954875"/>
           <a:chExt cx="4791075" cy="2601354"/>
         </a:xfrm>
@@ -7662,8 +7666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="895351" y="1219199"/>
-          <a:ext cx="9810749" cy="2257426"/>
+          <a:off x="911680" y="1253217"/>
+          <a:ext cx="10010774" cy="2328183"/>
           <a:chOff x="895351" y="1219199"/>
           <a:chExt cx="9810749" cy="2257426"/>
         </a:xfrm>
@@ -8461,6 +8465,1141 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930FBD9C-92F0-4A29-9689-7E7F349EE293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="748393" y="24615321"/>
+          <a:ext cx="10640785" cy="3758292"/>
+          <a:chOff x="966107" y="23758071"/>
+          <a:chExt cx="10640785" cy="3758292"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12B493E-81B4-445C-8831-927B9C7FE7BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="966107" y="25703893"/>
+            <a:ext cx="1074965" cy="748393"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Browser</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="テキスト ボックス 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C079F5BB-F2CD-4697-9B84-DC43BEA755DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2871106" y="25690285"/>
+            <a:ext cx="1074965" cy="748393"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>LB</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="テキスト ボックス 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FE6E60-E53E-4591-A34C-C69EF1A9B711}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5279572" y="24928285"/>
+            <a:ext cx="1074965" cy="748393"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>AP server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="テキスト ボックス 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BA979E-8C0C-4BE4-ABE4-606453B333E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5282293" y="26468614"/>
+            <a:ext cx="1074965" cy="748393"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>AP server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB076A5-F2D8-408B-A319-A28B63139F15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7334250" y="25595036"/>
+            <a:ext cx="1074964" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>DB</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="テキスト ボックス 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90255512-463B-4167-B810-BFC85BB782B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4721678" y="24601716"/>
+            <a:ext cx="1265464" cy="435428"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>HttpSession</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="テキスト ボックス 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DE5C3C-E19E-4947-AB96-161C4F68B528}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4710793" y="27053722"/>
+            <a:ext cx="1265464" cy="435428"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>HttpSession</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="四角形: 1 つの角を切り取り 1 つの角を丸める 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29D2544-E928-4303-9414-74C070E6A222}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6912429" y="23758071"/>
+            <a:ext cx="2177143" cy="598715"/>
+          </a:xfrm>
+          <a:prstGeom prst="snipRoundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Space per AP server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="四角形: 1 つの角を切り取り 1 つの角を丸める 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5131B41-2097-44B8-83B5-F4574562B91D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9293679" y="25363715"/>
+            <a:ext cx="2177143" cy="734785"/>
+          </a:xfrm>
+          <a:prstGeom prst="snipRoundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Share tokens between AP servers</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0544D43-27AA-4933-91F7-E31A3BB9DC81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="3"/>
+            <a:endCxn id="170" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2041072" y="26064482"/>
+            <a:ext cx="830034" cy="13608"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4C8685-0013-40DC-9D88-B6718222C2DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="170" idx="3"/>
+            <a:endCxn id="172" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3946071" y="25302482"/>
+            <a:ext cx="1333501" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4E8BA2-746E-4F63-9738-8B938A61C92C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="170" idx="3"/>
+            <a:endCxn id="198" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3946071" y="26064482"/>
+            <a:ext cx="1336222" cy="778329"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="204" name="直線矢印コネクタ 203">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D7689A-8F32-4F55-BF09-1E5A9A149242}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="172" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6354537" y="25302482"/>
+            <a:ext cx="979713" cy="768804"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="205" name="直線矢印コネクタ 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55BC3D4-5F89-453F-84B2-21D06910F7FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="198" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6357258" y="26071286"/>
+            <a:ext cx="976992" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="206" name="直線矢印コネクタ 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E878039-03EF-4E7F-9EE4-34E30C70D755}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="199" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5987142" y="24057429"/>
+            <a:ext cx="925287" cy="762001"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="207" name="直線矢印コネクタ 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACAD2C8-1F79-4C6C-A7ED-8FBFBBB31581}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="201" idx="2"/>
+            <a:endCxn id="4" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8409214" y="25731108"/>
+            <a:ext cx="884465" cy="340178"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="グループ化 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F6F823-8D90-4BBC-A7FB-6D0912C66D75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7620000" y="26645507"/>
+            <a:ext cx="3986892" cy="870856"/>
+            <a:chOff x="7184571" y="27012900"/>
+            <a:chExt cx="3986892" cy="870856"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="208" name="テキスト ボックス 207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE32B68-4005-4593-8069-633F45E98B2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7184571" y="27445607"/>
+              <a:ext cx="1632857" cy="435428"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Token(UUID)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="209" name="テキスト ボックス 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF089CB-8573-45B9-AAF7-BF52DD049EB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8820148" y="27448328"/>
+              <a:ext cx="2351315" cy="435428"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Creation date</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> and time</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="210" name="テキスト ボックス 209">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCC6BFC-F890-4C52-A745-A5ECF8E7A878}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7187293" y="27012900"/>
+              <a:ext cx="2691493" cy="435428"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Double submit token</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8785,10 +9924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:BE113"/>
+  <dimension ref="B3:BE136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW36" sqref="AW36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS158" sqref="AS158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8835,6 +9974,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D136" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
